--- a/Glua/Inventory transfer record template11.xlsx
+++ b/Glua/Inventory transfer record template11.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neko\Desktop\pharmZM\Pharm zm\Glua\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F64D025-8547-4CB0-924E-E44D9B74FA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18430" windowHeight="8410"/>
+    <workbookView xWindow="3900" yWindow="1690" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -19,8 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Vaccine</t>
   </si>
@@ -44,70 +48,15 @@
   <si>
     <t>Dose Pack</t>
   </si>
-  <si>
-    <t>Product 2</t>
-  </si>
-  <si>
-    <t>Product 3</t>
-  </si>
-  <si>
-    <t>Product 4</t>
-  </si>
-  <si>
-    <t>Product 5</t>
-  </si>
-  <si>
-    <t>Product 6</t>
-  </si>
-  <si>
-    <t>Product 7</t>
-  </si>
-  <si>
-    <t>Product 8</t>
-  </si>
-  <si>
-    <t>Product 9</t>
-  </si>
-  <si>
-    <t>Product 10</t>
-  </si>
-  <si>
-    <t>Product 11</t>
-  </si>
-  <si>
-    <t>Product 12</t>
-  </si>
-  <si>
-    <t>Product 13</t>
-  </si>
-  <si>
-    <t>Product 14</t>
-  </si>
-  <si>
-    <t>Product 15</t>
-  </si>
-  <si>
-    <t>Product 16</t>
-  </si>
-  <si>
-    <t>Product 17</t>
-  </si>
-  <si>
-    <t>Product 18</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="m/d/yyyy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,156 +73,12 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1" tint="0.25"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,194 +97,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -489,474 +108,182 @@
     </border>
     <border>
       <left style="thick">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </left>
       <right style="double">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </right>
       <top/>
       <bottom style="double">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="double">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </left>
       <right style="double">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </right>
       <top/>
       <bottom style="double">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </left>
       <right style="double">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </right>
       <top style="double">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="double">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="double">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </left>
       <right style="double">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </right>
       <top style="double">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="double">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </left>
       <right style="double">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </right>
       <top style="double">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="thick">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="double">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </left>
       <right style="double">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </right>
       <top style="double">
-        <color theme="0" tint="-0.05"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="thick">
-        <color theme="0" tint="-0.05"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00143BD6"/>
-      <color rgb="00153C7D"/>
+      <color rgb="FF143BD6"/>
+      <color rgb="FF153C7D"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -972,13 +299,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="Picture1"/>
+        <xdr:cNvPr id="17" name="Picture 16" descr="Picture1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -999,7 +332,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1015,20 +348,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="组合 3"/>
+        <xdr:cNvPr id="4" name="组合 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="635" y="635"/>
-          <a:ext cx="10057765" cy="14195425"/>
+          <a:ext cx="10055860" cy="14195425"/>
           <a:chOff x="1636" y="818"/>
           <a:chExt cx="15576" cy="19977"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="矩形 1"/>
+          <xdr:cNvPr id="5" name="矩形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1073,7 +418,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="6" name="组合 5"/>
+          <xdr:cNvPr id="6" name="组合 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1086,7 +437,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="7" name="组合 102"/>
+            <xdr:cNvPr id="7" name="组合 102">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -1097,9 +454,15 @@
               <a:chExt cx="10569" cy="1053"/>
             </a:xfrm>
           </xdr:grpSpPr>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="8" name="矩形 7"/>
+              <xdr:cNvPr id="8" name="矩形 7">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -1134,9 +497,15 @@
               </a:fontRef>
             </xdr:style>
           </xdr:sp>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="9" name="文本框 8"/>
+              <xdr:cNvPr id="9" name="文本框 8">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -1233,21 +602,18 @@
                   </a:rPr>
                   <a:t>Docer Table Template Instructions</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2800" kern="100">
-                  <a:solidFill>
-                    <a:srgbClr val="4D455D"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                  <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                  <a:sym typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                </a:endParaRPr>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="10" name="文本框 9"/>
+              <xdr:cNvPr id="10" name="文本框 9">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -1361,9 +727,15 @@
             </xdr:txBody>
           </xdr:sp>
         </xdr:grpSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="11" name="直接连接符 10"/>
+            <xdr:cNvPr id="11" name="直接连接符 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1399,7 +771,13 @@
         </xdr:cxnSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="12" name="组合 11"/>
+            <xdr:cNvPr id="12" name="组合 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -1410,9 +788,15 @@
               <a:chExt cx="4612" cy="940"/>
             </a:xfrm>
           </xdr:grpSpPr>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="13" name="文本框 12"/>
+              <xdr:cNvPr id="13" name="文本框 12">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -1509,21 +893,18 @@
                   </a:rPr>
                   <a:t>02</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="3800" b="1" kern="1200">
-                  <a:solidFill>
-                    <a:srgbClr val="FF2832"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                  <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                  <a:sym typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                </a:endParaRPr>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="14" name="文本框 13"/>
+              <xdr:cNvPr id="14" name="文本框 13">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -1622,22 +1003,19 @@
                   </a:rPr>
                   <a:t>Instructions</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200">
-                  <a:solidFill>
-                    <a:srgbClr val="222222"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                  <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                  <a:sym typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                </a:endParaRPr>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
         </xdr:grpSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="15" name="组合 14"/>
+            <xdr:cNvPr id="15" name="组合 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -1650,7 +1028,13 @@
           </xdr:grpSpPr>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="16" name="组合 15"/>
+              <xdr:cNvPr id="16" name="组合 15">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvGrpSpPr/>
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
@@ -1661,9 +1045,15 @@
                 <a:chExt cx="6296" cy="1158"/>
               </a:xfrm>
             </xdr:grpSpPr>
-            <xdr:sp>
+            <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="17" name="文本框 16"/>
+                <xdr:cNvPr id="17" name="文本框 16">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr txBox="1"/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -1762,21 +1152,18 @@
                     </a:rPr>
                     <a:t>01</a:t>
                   </a:r>
-                  <a:endParaRPr lang="en-US" altLang="zh-CN" sz="3800" b="1" kern="1200">
-                    <a:solidFill>
-                      <a:srgbClr val="FF2832"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                    <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                    <a:sym typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                  </a:endParaRPr>
                 </a:p>
               </xdr:txBody>
             </xdr:sp>
-            <xdr:sp>
+            <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="18" name="文本框 17"/>
+                <xdr:cNvPr id="18" name="文本框 17">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr txBox="1"/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -1879,22 +1266,19 @@
                     </a:rPr>
                     <a:t>Basic Operating Guidelines</a:t>
                   </a:r>
-                  <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200">
-                    <a:solidFill>
-                      <a:srgbClr val="222222"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                    <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                    <a:sym typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                  </a:endParaRPr>
                 </a:p>
               </xdr:txBody>
             </xdr:sp>
           </xdr:grpSp>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="19" name="组合 18"/>
+              <xdr:cNvPr id="19" name="组合 18">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvGrpSpPr/>
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
@@ -1907,7 +1291,13 @@
             </xdr:grpSpPr>
             <xdr:grpSp>
               <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="20" name="组合 69"/>
+                <xdr:cNvPr id="20" name="组合 69">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvGrpSpPr/>
               </xdr:nvGrpSpPr>
               <xdr:grpSpPr>
@@ -1918,9 +1308,15 @@
                   <a:chExt cx="14324" cy="4770"/>
                 </a:xfrm>
               </xdr:grpSpPr>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
-                  <xdr:cNvPr id="21" name="文本框 20"/>
+                  <xdr:cNvPr id="21" name="文本框 20">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
                   <xdr:cNvSpPr txBox="1"/>
                 </xdr:nvSpPr>
                 <xdr:spPr>
@@ -2019,21 +1415,18 @@
                       </a:rPr>
                       <a:t>· How to unprotect sheet?</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" altLang="zh-CN" b="0" kern="1200">
-                      <a:solidFill>
-                        <a:srgbClr val="222222"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:ea typeface="Inter" panose="02000503000000020004" charset="0"/>
-                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:sym typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
-                  <xdr:cNvPr id="22" name="文本框 21"/>
+                  <xdr:cNvPr id="22" name="文本框 21">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
                   <xdr:cNvSpPr txBox="1"/>
                 </xdr:nvSpPr>
                 <xdr:spPr>
@@ -2166,17 +1559,6 @@
                       </a:rPr>
                       <a:t>Select Worksheet.</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" kern="1200">
-                      <a:solidFill>
-                        <a:srgbClr val="222222">
-                          <a:alpha val="60000"/>
-                        </a:srgbClr>
-                      </a:solidFill>
-                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:ea typeface="Inter" panose="02000503000000020004" charset="0"/>
-                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:sym typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                    </a:endParaRPr>
                   </a:p>
                   <a:p>
                     <a:pPr marL="0" algn="l" fontAlgn="t">
@@ -2226,23 +1608,18 @@
                       </a:rPr>
                       <a:t>Click:「Review --- Unprotect Sheet」.</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" kern="1200">
-                      <a:solidFill>
-                        <a:srgbClr val="222222">
-                          <a:alpha val="60000"/>
-                        </a:srgbClr>
-                      </a:solidFill>
-                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:ea typeface="Inter" panose="02000503000000020004" charset="0"/>
-                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:sym typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
-                  <xdr:cNvPr id="23" name="文本框 22"/>
+                  <xdr:cNvPr id="23" name="文本框 22">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
                   <xdr:cNvSpPr txBox="1"/>
                 </xdr:nvSpPr>
                 <xdr:spPr>
@@ -2375,17 +1752,6 @@
                       </a:rPr>
                       <a:t>Select cells that display data.</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" kern="1200">
-                      <a:solidFill>
-                        <a:srgbClr val="222222">
-                          <a:alpha val="60000"/>
-                        </a:srgbClr>
-                      </a:solidFill>
-                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:ea typeface="Inter" panose="02000503000000020004" charset="0"/>
-                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:sym typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                    </a:endParaRPr>
                   </a:p>
                   <a:p>
                     <a:pPr marL="0" algn="l" fontAlgn="t">
@@ -2435,23 +1801,18 @@
                       </a:rPr>
                       <a:t>.</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" kern="1200">
-                      <a:solidFill>
-                        <a:srgbClr val="222222">
-                          <a:alpha val="60000"/>
-                        </a:srgbClr>
-                      </a:solidFill>
-                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:ea typeface="Inter" panose="02000503000000020004" charset="0"/>
-                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:sym typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
-                  <xdr:cNvPr id="24" name="文本框 20"/>
+                  <xdr:cNvPr id="24" name="文本框 20">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
                   <xdr:cNvSpPr txBox="1"/>
                 </xdr:nvSpPr>
                 <xdr:spPr>
@@ -2584,17 +1945,6 @@
                       </a:rPr>
                       <a:t>Select the last row of the table, and put the mouse in the bottom right corner of the selected area.</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" kern="1200">
-                      <a:solidFill>
-                        <a:srgbClr val="222222">
-                          <a:alpha val="60000"/>
-                        </a:srgbClr>
-                      </a:solidFill>
-                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:ea typeface="Inter" panose="02000503000000020004" charset="0"/>
-                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:sym typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                    </a:endParaRPr>
                   </a:p>
                   <a:p>
                     <a:pPr marL="0" algn="l" fontAlgn="t">
@@ -2644,17 +1994,6 @@
                       </a:rPr>
                       <a:t>When the mouse arrow changes to a black cross, click the left button to drop down.</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" kern="1200">
-                      <a:solidFill>
-                        <a:srgbClr val="222222">
-                          <a:alpha val="60000"/>
-                        </a:srgbClr>
-                      </a:solidFill>
-                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:ea typeface="Inter" panose="02000503000000020004" charset="0"/>
-                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:sym typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                    </a:endParaRPr>
                   </a:p>
                   <a:p>
                     <a:pPr marL="0" algn="l" fontAlgn="t">
@@ -2676,24 +2015,19 @@
                       </a:rPr>
                       <a:t>3.  If the cells cannot be selected, it is recommended to check whether "Unprotect Sheet" is displayed in "Review" Tab. If it appears, please click on "Unprotect Sheet" ，to return to the table and continue the operation.</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" kern="1200">
-                      <a:solidFill>
-                        <a:srgbClr val="222222">
-                          <a:alpha val="60000"/>
-                        </a:srgbClr>
-                      </a:solidFill>
-                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:ea typeface="Inter" panose="02000503000000020004" charset="0"/>
-                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:sym typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
             </xdr:grpSp>
-            <xdr:sp>
+            <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="25" name="文本框 24"/>
+                <xdr:cNvPr id="25" name="文本框 24">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr txBox="1"/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -2801,18 +2135,18 @@
                     </a:rPr>
                     <a:t>How to increase row numbers in table</a:t>
                   </a:r>
-                  <a:endParaRPr lang="en-US" altLang="zh-CN" kern="100">
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                    <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                    <a:sym typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                  </a:endParaRPr>
                 </a:p>
               </xdr:txBody>
             </xdr:sp>
-            <xdr:sp>
+            <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="26" name="文本框 25"/>
+                <xdr:cNvPr id="26" name="文本框 25">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr txBox="1"/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -2911,21 +2245,18 @@
                     </a:rPr>
                     <a:t>· How to use the template</a:t>
                   </a:r>
-                  <a:endParaRPr lang="en-US" altLang="zh-CN" kern="1200">
-                    <a:solidFill>
-                      <a:srgbClr val="222222"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                    <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                    <a:sym typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                  </a:endParaRPr>
                 </a:p>
               </xdr:txBody>
             </xdr:sp>
-            <xdr:sp>
+            <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="27" name="文本框 26"/>
+                <xdr:cNvPr id="27" name="文本框 26">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr txBox="1"/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -3022,21 +2353,18 @@
                     </a:rPr>
                     <a:t>The table contains automatic calculation functions, input your data to automatically calculate the results</a:t>
                   </a:r>
-                  <a:endParaRPr lang="en-US" altLang="zh-CN" kern="1200">
-                    <a:solidFill>
-                      <a:srgbClr val="222222"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                    <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                    <a:sym typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                  </a:endParaRPr>
                 </a:p>
               </xdr:txBody>
             </xdr:sp>
-            <xdr:sp>
+            <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="34" name="文本框 33"/>
+                <xdr:cNvPr id="34" name="文本框 33">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr txBox="1"/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -3133,15 +2461,6 @@
                     </a:rPr>
                     <a:t>Automatically calculate inventory based on outbound quantity and display it in front</a:t>
                   </a:r>
-                  <a:endParaRPr lang="en-US" altLang="zh-CN" kern="1200">
-                    <a:solidFill>
-                      <a:srgbClr val="222222"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                    <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                    <a:sym typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                  </a:endParaRPr>
                 </a:p>
               </xdr:txBody>
             </xdr:sp>
@@ -3164,9 +2483,15 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>170180</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直接连接符 27"/>
+        <xdr:cNvPr id="28" name="直接连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3215,9 +2540,15 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="文本框 28"/>
+        <xdr:cNvPr id="29" name="文本框 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3314,15 +2645,6 @@
             </a:rPr>
             <a:t>· What should I do if the formula cannot display properly when I input content in a blank line?</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" b="0" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="222222"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-            <a:ea typeface="Inter" panose="02000503000000020004" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-            <a:sym typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3343,13 +2665,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 43"/>
+        <xdr:cNvPr id="30" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3385,13 +2713,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 44"/>
+        <xdr:cNvPr id="31" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3427,13 +2761,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3469,13 +2809,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPr id="35" name="图片 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3743,434 +3089,199 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.2545454545455" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6272727272727" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7545454545455" customWidth="1"/>
-    <col min="4" max="4" width="14.6272727272727" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.6272727272727" customWidth="1"/>
-    <col min="6" max="6" width="6.46363636363636" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.6272727272727" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.6272727272727" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10" style="4" customWidth="1"/>
-    <col min="10" max="11" width="14.6272727272727" style="4" customWidth="1"/>
-    <col min="12" max="12" width="19" style="4" customWidth="1"/>
-    <col min="13" max="13" width="14" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="11" width="14.6328125" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="121" customHeight="1" spans="1:5">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
+    <row r="1" spans="1:5" ht="121" customHeight="1">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="18"/>
     </row>
-    <row r="2" ht="45" customHeight="1" spans="1:5">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" ht="45" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="45" customHeight="1" spans="1:5">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="16">
-        <f t="shared" ref="C3:C20" si="0">SUMPRODUCT(($H$3:$H$11997=$A3)*$L$3:$L$11997)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
-        <f t="shared" ref="D3:D20" si="1">SUMPRODUCT(($H$3:$H$11997=$A3)*$M$3:$M$11997)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="16">
-        <f t="shared" ref="E3:E20" si="2">B3+C3-D3</f>
-        <v>1000</v>
-      </c>
+    <row r="3" spans="1:5" ht="45" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
     </row>
-    <row r="4" ht="45" customHeight="1" spans="1:5">
-      <c r="A4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
+    <row r="4" spans="1:5" ht="45" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
     </row>
-    <row r="5" ht="45" customHeight="1" spans="1:5">
-      <c r="A5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="16">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
+    <row r="5" spans="1:5" ht="45" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
     </row>
-    <row r="6" ht="45" customHeight="1" spans="1:5">
-      <c r="A6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
+    <row r="6" spans="1:5" ht="45" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
     </row>
-    <row r="7" ht="45" customHeight="1" spans="1:5">
-      <c r="A7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
+    <row r="7" spans="1:5" ht="45" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
     </row>
-    <row r="8" ht="45" customHeight="1" spans="1:5">
-      <c r="A8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
+    <row r="8" spans="1:5" ht="45" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
     </row>
-    <row r="9" ht="45" customHeight="1" spans="1:5">
-      <c r="A9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
+    <row r="9" spans="1:5" ht="45" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:5">
-      <c r="A10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
+    <row r="10" spans="1:5" ht="45" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
     </row>
-    <row r="11" ht="45" customHeight="1" spans="1:5">
-      <c r="A11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C11" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
+    <row r="11" spans="1:5" ht="45" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
     </row>
-    <row r="12" ht="45" customHeight="1" spans="1:5">
-      <c r="A12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C12" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="16">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
+    <row r="12" spans="1:5" ht="45" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
     </row>
-    <row r="13" ht="45" customHeight="1" spans="1:5">
-      <c r="A13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
+    <row r="13" spans="1:5" ht="45" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10"/>
     </row>
-    <row r="14" ht="45" customHeight="1" spans="1:5">
-      <c r="A14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C14" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
+    <row r="14" spans="1:5" ht="45" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
     </row>
-    <row r="15" ht="45" customHeight="1" spans="1:5">
-      <c r="A15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C15" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
+    <row r="15" spans="1:5" ht="45" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
     </row>
-    <row r="16" ht="45" customHeight="1" spans="1:5">
-      <c r="A16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C16" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
+    <row r="16" spans="1:5" ht="45" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
     </row>
-    <row r="17" ht="45" customHeight="1" spans="1:5">
-      <c r="A17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C17" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="16">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
+    <row r="17" spans="1:5" ht="45" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
     </row>
-    <row r="18" ht="45" customHeight="1" spans="1:5">
-      <c r="A18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C18" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
+    <row r="18" spans="1:5" ht="45" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10"/>
     </row>
-    <row r="19" ht="45" customHeight="1" spans="1:5">
-      <c r="A19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C19" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
+    <row r="19" spans="1:5" ht="45" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
     </row>
-    <row r="20" ht="45" customHeight="1" spans="1:5">
-      <c r="A20" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="19">
-        <v>1000</v>
-      </c>
-      <c r="C20" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="20">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
+    <row r="20" spans="1:5" ht="45" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="14"/>
     </row>
-    <row r="21" ht="15.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:E2 A3:E20"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:E2 A3:E20" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
@@ -4181,7 +3292,6 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>